--- a/records_maps/Capstone Maps/barnard-map2019.xlsx
+++ b/records_maps/Capstone Maps/barnard-map2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Dropbox/gradschool/CUNYGC/MADH/capstone/Maps and Records/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED96B69-F0BE-F44C-A07B-2A42E1F15FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C167A2-C76F-EE4D-BD8C-9B2308E18990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="27720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="table">'Drop-down Lists'!$F$1:$F$16</definedName>
     <definedName name="YES_NO">'Drop-down Lists'!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -209,9 +209,6 @@
     <t>column c</t>
   </si>
   <si>
-    <t>ca_objects.date.dates_value</t>
-  </si>
-  <si>
     <t>ca_storage_locations</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>Set to yes to save the data spreadsheet or no to delete it from the server after import</t>
+  </si>
+  <si>
+    <t>ca_objects.date.datetext</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -958,10 +958,10 @@
       <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -994,16 +994,16 @@
         <v>55</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="1"/>
       <c r="K6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1028,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1038,10 +1038,10 @@
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
       <c r="K7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1162,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1219,13 +1219,13 @@
     <row r="13" spans="1:26" ht="31.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="14" spans="1:26" ht="31.5" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
@@ -1291,16 +1291,16 @@
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
@@ -1329,16 +1329,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1367,16 +1367,16 @@
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1405,16 +1405,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="3"/>
@@ -1443,16 +1443,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="4"/>
@@ -1460,7 +1460,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1483,16 +1483,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1521,13 +1521,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
@@ -1557,13 +1557,13 @@
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1593,13 +1593,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1629,13 +1629,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -29486,7 +29486,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -29516,7 +29516,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -29546,7 +29546,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>

--- a/records_maps/Capstone Maps/barnard-map2019.xlsx
+++ b/records_maps/Capstone Maps/barnard-map2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C167A2-C76F-EE4D-BD8C-9B2308E18990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9B10F6-47B9-FB49-8264-415A060E29AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="27720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="1940" windowWidth="27600" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>Rule type</t>
   </si>
@@ -263,9 +263,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Objects Import</t>
-  </si>
-  <si>
     <t>Human readable name of the mapping</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
   </si>
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>Objects_import</t>
   </si>
   <si>
     <t>Alphanumeric code of the mapping</t>
@@ -351,6 +345,9 @@
   </si>
   <si>
     <t>ca_objects.date.datetext</t>
+  </si>
+  <si>
+    <t>barnard-map2019</t>
   </si>
 </sst>
 </file>
@@ -755,7 +752,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -948,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1294,13 +1291,13 @@
         <v>76</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
@@ -1329,16 +1326,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1367,16 +1364,16 @@
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1405,16 +1402,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="3"/>
@@ -1443,16 +1440,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="4"/>
@@ -1460,7 +1457,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1483,16 +1480,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1521,13 +1518,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
@@ -1557,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1593,13 +1590,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1629,13 +1626,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>

--- a/records_maps/Capstone Maps/barnard-map2019.xlsx
+++ b/records_maps/Capstone Maps/barnard-map2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C085FBE4-EBA1-514B-99B7-6314D5D99AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A512F0-2FFA-4446-8CB2-D21DB57FAD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="1760" windowWidth="25540" windowHeight="15160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="102">
   <si>
     <t>Rule type</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>ca_objects.subject</t>
-  </si>
-  <si>
-    <t>listItemSplitter</t>
   </si>
   <si>
     <t>Constant</t>
@@ -340,9 +337,6 @@
   </si>
   <si>
     <t>ca_objects.external_link</t>
-  </si>
-  <si>
-    <t>{"delimiter": ";", "relationshipType": "is described by", "list": "zinecatsubject"}</t>
   </si>
   <si>
     <t>{"delimiter": ";"}</t>
@@ -861,8 +855,8 @@
   <dimension ref="A1:AMK1028"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -975,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1013,11 +1007,11 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1123,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" s="8"/>
       <c r="F7" s="3"/>
@@ -1156,7 +1150,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="8"/>
       <c r="F8" s="3"/>
@@ -1189,7 +1183,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8"/>
       <c r="F9" s="3"/>
@@ -1331,7 +1325,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
@@ -1365,7 +1359,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -1399,7 +1393,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
@@ -1533,7 +1527,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
@@ -1591,7 +1585,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="68" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" ht="17" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
@@ -1601,12 +1595,14 @@
       <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="F21" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1628,7 +1624,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="68" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>11</v>
       </c>
@@ -1638,12 +1634,14 @@
       <c r="C22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="F22" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1665,7 +1663,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="68" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>11</v>
       </c>
@@ -1675,12 +1673,14 @@
       <c r="C23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="F23" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1702,7 +1702,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="68" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>11</v>
       </c>
@@ -1712,12 +1712,14 @@
       <c r="C24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="F24" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1739,7 +1741,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="68" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>11</v>
       </c>
@@ -1749,12 +1751,14 @@
       <c r="C25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="F25" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -2054,7 +2058,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="16"/>
@@ -2120,7 +2124,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="16"/>
@@ -2176,23 +2180,23 @@
     </row>
     <row r="38" spans="1:26" ht="51" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2271,13 +2275,13 @@
     <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>10</v>
@@ -2306,19 +2310,19 @@
     </row>
     <row r="42" spans="1:26" ht="51" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="6"/>
@@ -2344,19 +2348,19 @@
     </row>
     <row r="43" spans="1:26" ht="51" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2382,13 +2386,13 @@
     </row>
     <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="8"/>
@@ -2416,19 +2420,19 @@
     </row>
     <row r="45" spans="1:26" ht="51" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="E45" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="8"/>
@@ -2454,19 +2458,19 @@
     </row>
     <row r="46" spans="1:26" ht="153" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="3"/>
@@ -2492,19 +2496,19 @@
     </row>
     <row r="47" spans="1:26" ht="136" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="8">
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2530,16 +2534,16 @@
     </row>
     <row r="48" spans="1:26" ht="85" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="8"/>
@@ -2566,16 +2570,16 @@
     </row>
     <row r="49" spans="1:26" ht="102" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -2602,16 +2606,16 @@
     </row>
     <row r="50" spans="1:26" ht="85" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -2638,16 +2642,16 @@
     </row>
     <row r="51" spans="1:26" ht="85" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -2674,13 +2678,13 @@
     </row>
     <row r="52" spans="1:26" ht="17" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2708,7 +2712,7 @@
     </row>
     <row r="53" spans="1:26" ht="17" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -30063,19 +30067,19 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -30100,22 +30104,22 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -30140,15 +30144,15 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -30180,14 +30184,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -30214,14 +30218,14 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -30248,14 +30252,14 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -30282,7 +30286,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -30314,12 +30318,12 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -30346,12 +30350,12 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -30378,12 +30382,12 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -30413,7 +30417,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -30443,7 +30447,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -30473,7 +30477,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -30503,7 +30507,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -30533,7 +30537,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -30563,7 +30567,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
